--- a/csv_results_HIGH_4E_STRUT.xlsx
+++ b/csv_results_HIGH_4E_STRUT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8ca05c72b348f169/Documenten/GitHub/Bigger_is_Better/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\floyd\OneDrive\Documenten\GitHub\Bigger_is_Better\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{58C48ED0-1FC9-4A8D-8736-FCBFBEC9F412}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:40009_{58C48ED0-1FC9-4A8D-8736-FCBFBEC9F412}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{71B5AF8E-DF8F-4DDF-95FC-B1CB1892208B}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView minimized="1" xWindow="6456" yWindow="4092" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="csv_results_HIGH_4E_STRUT" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
   <si>
     <t>Design 1</t>
   </si>
@@ -365,12 +365,15 @@
   </si>
   <si>
     <t>Specific fuel consumption [kg/km/pas]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1207,23 +1210,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CD35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="CH17" sqref="CH17"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="13" width="0" hidden="1" customWidth="1"/>
-    <col min="17" max="22" width="0" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="8.88671875" style="2"/>
-    <col min="29" max="40" width="0" hidden="1" customWidth="1"/>
-    <col min="44" max="52" width="0" hidden="1" customWidth="1"/>
-    <col min="56" max="67" width="0" hidden="1" customWidth="1"/>
-    <col min="71" max="71" width="0" hidden="1" customWidth="1"/>
-    <col min="74" max="79" width="0" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="2" max="13" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="14" max="16" width="0" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" hidden="1" customWidth="1"/>
+    <col min="18" max="22" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="26.44140625" style="2" customWidth="1"/>
+    <col min="29" max="40" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="44" max="52" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="56" max="67" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="71" max="71" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="72" max="73" width="0" hidden="1" customWidth="1"/>
+    <col min="74" max="79" width="8.88671875" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:82" x14ac:dyDescent="0.3">
@@ -9728,8 +9735,8 @@
       <c r="X35">
         <v>8.1676348734450108E-3</v>
       </c>
-      <c r="Y35" s="2">
-        <v>7.8561310728856096E-3</v>
+      <c r="Y35" s="2" t="s">
+        <v>115</v>
       </c>
       <c r="Z35">
         <v>9.6435209371270002E-3</v>

--- a/csv_results_HIGH_4E_STRUT.xlsx
+++ b/csv_results_HIGH_4E_STRUT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8ca05c72b348f169/Documenten/GitHub/Bigger_is_Better/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\OneDrive\Documents\DSE\Bigger_is_Better\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{58C48ED0-1FC9-4A8D-8736-FCBFBEC9F412}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:40009_{58C48ED0-1FC9-4A8D-8736-FCBFBEC9F412}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{1436DEE8-53A1-4813-8FFD-EE97CC1D52E6}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="1080" yWindow="-108" windowWidth="22068" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="csv_results_HIGH_4E_STRUT" sheetId="1" r:id="rId1"/>
@@ -370,7 +370,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1207,18 +1207,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CD35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="CH17" sqref="CH17"/>
+      <selection activeCell="Y1" sqref="Y1:Y1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="35.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="13" width="0" hidden="1" customWidth="1"/>
     <col min="17" max="22" width="0" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="8.88671875" style="2"/>
+    <col min="25" max="25" width="13.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="29" max="40" width="0" hidden="1" customWidth="1"/>
     <col min="44" max="52" width="0" hidden="1" customWidth="1"/>
     <col min="56" max="67" width="0" hidden="1" customWidth="1"/>
